--- a/museum_summary_report.xlsx
+++ b/museum_summary_report.xlsx
@@ -440,7 +440,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>242242</v>
       </c>
     </row>
     <row r="3">
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4000</v>
+        <v>242242</v>
       </c>
     </row>
   </sheetData>

--- a/museum_summary_report.xlsx
+++ b/museum_summary_report.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,43 +424,131 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>Категория</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Количество человек</t>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Название</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Оценка</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Экспонаты</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>242242</v>
+      <c r="A2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Экспонат</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Картина ночи</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Статьи</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
+      <c r="A3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Статья</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Интервью с куратором</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Всего</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>242242</v>
+      <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Статья</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Как поддерживать экспонаты</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Экспонат</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Средневековый меч</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Статья</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>История музея</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Экспонат</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Великий динозавр</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
